--- a/data/trans_orig/P20D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>12397</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8168</v>
+        <v>8294</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16107</v>
+        <v>15808</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6370367926950087</v>
+        <v>0.6370367926950088</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4197181075969039</v>
+        <v>0.4261755996671439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8276571391667743</v>
+        <v>0.812285853153511</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -762,19 +762,19 @@
         <v>7091</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4033</v>
+        <v>4052</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9838</v>
+        <v>9868</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4680449846083585</v>
+        <v>0.4680449846083586</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2662286153743647</v>
+        <v>0.2674842887210809</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6493766864381273</v>
+        <v>0.6513842896563968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -783,19 +783,19 @@
         <v>19488</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13966</v>
+        <v>14566</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24168</v>
+        <v>24105</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5630651095357307</v>
+        <v>0.5630651095357309</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4035189875484789</v>
+        <v>0.4208544194277222</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6982652971128129</v>
+        <v>0.6964647213457991</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>3122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7885</v>
+        <v>7200</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1604306057312243</v>
+        <v>0.1604306057312244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03891408698307976</v>
+        <v>0.03735576336933852</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.405180602285956</v>
+        <v>0.3699957914099077</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>1285</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3416</v>
+        <v>3312</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08483427474766637</v>
+        <v>0.08483427474766639</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02224972078719095</v>
+        <v>0.02166441432236018</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2255086734073756</v>
+        <v>0.218633743312843</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -854,19 +854,19 @@
         <v>4407</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1815</v>
+        <v>2124</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8887</v>
+        <v>9660</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1273403162856414</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05243712182533129</v>
+        <v>0.06137646877164958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2567679685941863</v>
+        <v>0.2790968980725262</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>3941</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1262</v>
+        <v>1194</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8441</v>
+        <v>8109</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2025326015737669</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06485870024040112</v>
+        <v>0.06136415864982454</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4337239236778633</v>
+        <v>0.4166617709636818</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -904,19 +904,19 @@
         <v>6774</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3941</v>
+        <v>4215</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9655</v>
+        <v>9845</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4471207406439751</v>
+        <v>0.4471207406439752</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2601337449370963</v>
+        <v>0.2782114606549834</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6372701115854505</v>
+        <v>0.6498419802471426</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -925,19 +925,19 @@
         <v>10715</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6417</v>
+        <v>6538</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15917</v>
+        <v>15874</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.309594574178628</v>
+        <v>0.3095945741786278</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1854120228312505</v>
+        <v>0.1889137255978132</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4598917248208535</v>
+        <v>0.4586451205077172</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>25267</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19894</v>
+        <v>19556</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30642</v>
+        <v>30454</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6728280378120428</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5297644553168759</v>
+        <v>0.5207553983020063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8159662832719509</v>
+        <v>0.8109522209320148</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -1050,19 +1050,19 @@
         <v>10359</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6165</v>
+        <v>5771</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16262</v>
+        <v>15346</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3212490156820475</v>
+        <v>0.3212490156820474</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1911942051214676</v>
+        <v>0.1789628958834</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5043220194323664</v>
+        <v>0.4759054961301323</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -1071,19 +1071,19 @@
         <v>35625</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27553</v>
+        <v>27123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43826</v>
+        <v>43632</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5104080203748924</v>
+        <v>0.5104080203748925</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3947486726710079</v>
+        <v>0.3885861036252407</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6279024440442101</v>
+        <v>0.6251216241180718</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>7498</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3512</v>
+        <v>3353</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12911</v>
+        <v>12948</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1996602013420508</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09351795801677013</v>
+        <v>0.08929794997555056</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3438050577832482</v>
+        <v>0.344787541075585</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1121,19 +1121,19 @@
         <v>3852</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1518</v>
+        <v>1389</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8174</v>
+        <v>8034</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1194700225144231</v>
+        <v>0.1194700225144232</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04707841586197669</v>
+        <v>0.04306716398864467</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2534977029817566</v>
+        <v>0.249165372290851</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -1142,19 +1142,19 @@
         <v>11350</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6732</v>
+        <v>6400</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18840</v>
+        <v>18574</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1626145034373114</v>
+        <v>0.1626145034373115</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09645648613647231</v>
+        <v>0.0916899700646201</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2699214621446872</v>
+        <v>0.2661089058339041</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>4788</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1763</v>
+        <v>1845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10335</v>
+        <v>10046</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1275117608459064</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04693502573349729</v>
+        <v>0.04912701065158252</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2752159435746003</v>
+        <v>0.2675029082416736</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1192,19 +1192,19 @@
         <v>18034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12368</v>
+        <v>12694</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23045</v>
+        <v>23679</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5592809618035293</v>
+        <v>0.5592809618035294</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3835591933330513</v>
+        <v>0.3936759506310414</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7146894464071812</v>
+        <v>0.7343441255479384</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1213,19 +1213,19 @@
         <v>22822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15661</v>
+        <v>15426</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33039</v>
+        <v>32644</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3269774761877961</v>
+        <v>0.3269774761877962</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2243692826860282</v>
+        <v>0.2210070110179686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4733571124866962</v>
+        <v>0.4676921363833371</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>7378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2950</v>
+        <v>3071</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10620</v>
+        <v>10645</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6594320735402835</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2636338466906555</v>
+        <v>0.274531243802374</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9492639376335497</v>
+        <v>0.9514545540685488</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1338,19 +1338,19 @@
         <v>3342</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1040</v>
+        <v>1130</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6051</v>
+        <v>6065</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3579245651578972</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.111343233764427</v>
+        <v>0.1210055383632899</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6481260706589691</v>
+        <v>0.6496127237250168</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -1359,19 +1359,19 @@
         <v>10719</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6278</v>
+        <v>6298</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15039</v>
+        <v>14940</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5222836597442259</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3059143435643419</v>
+        <v>0.3068566237376097</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7327964314895531</v>
+        <v>0.7279602778592652</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>3810</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8238</v>
+        <v>8117</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3405679264597164</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05073606236645025</v>
+        <v>0.04854544593145111</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7363661533093447</v>
+        <v>0.725468756197626</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1409,19 +1409,19 @@
         <v>1862</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4568</v>
+        <v>4535</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1994862885317761</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05662594960235612</v>
+        <v>0.05203377297776113</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4892418043543587</v>
+        <v>0.4857719393421523</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1430,19 +1430,19 @@
         <v>5672</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2311</v>
+        <v>2147</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11421</v>
+        <v>11266</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2763933294111174</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1125935357061697</v>
+        <v>0.1045966712170722</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5565165022550039</v>
+        <v>0.5489673215706404</v>
       </c>
     </row>
     <row r="14">
@@ -1472,19 +1472,19 @@
         <v>4132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1722</v>
+        <v>1892</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6859</v>
+        <v>6881</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4425891463103266</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1844804599152092</v>
+        <v>0.2026791617549324</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7346918344129715</v>
+        <v>0.737089733623382</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1493,19 +1493,19 @@
         <v>4132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8237</v>
+        <v>8756</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2013230108446566</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08337640606683709</v>
+        <v>0.08301628284866477</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4013432021566005</v>
+        <v>0.4266292739854677</v>
       </c>
     </row>
     <row r="15">
@@ -1597,19 +1597,19 @@
         <v>45042</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36721</v>
+        <v>35534</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52092</v>
+        <v>52051</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6604178593495731</v>
+        <v>0.6604178593495733</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5384108253908525</v>
+        <v>0.521004662573467</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7637942367961023</v>
+        <v>0.7631848579243622</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -1618,19 +1618,19 @@
         <v>20791</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14799</v>
+        <v>14641</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27122</v>
+        <v>27842</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3664864502854389</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2608670313274031</v>
+        <v>0.2580708197922662</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4780761854897731</v>
+        <v>0.4907756826125808</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -1639,19 +1639,19 @@
         <v>65833</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55216</v>
+        <v>54872</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77037</v>
+        <v>76679</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5269468150274716</v>
+        <v>0.5269468150274719</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4419686618902264</v>
+        <v>0.4392138678983206</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6166254862147121</v>
+        <v>0.613761364636833</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>14430</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8984</v>
+        <v>8534</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23476</v>
+        <v>23433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2115807135263945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1317291363678173</v>
+        <v>0.1251276620505174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3442093984995179</v>
+        <v>0.3435808296974716</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1689,19 +1689,19 @@
         <v>7000</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3911</v>
+        <v>3617</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12070</v>
+        <v>11714</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1233879690675944</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06894662459618832</v>
+        <v>0.06375200121640516</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2127611345534004</v>
+        <v>0.2064775545332873</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1710,19 +1710,19 @@
         <v>21430</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14119</v>
+        <v>14413</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31055</v>
+        <v>31810</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1715333509732491</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1130101041558072</v>
+        <v>0.1153659708012554</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2485702851622797</v>
+        <v>0.25461937820495</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>8730</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -1760,19 +1760,19 @@
         <v>28940</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22537</v>
+        <v>22021</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35862</v>
+        <v>36535</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.5101255806469666</v>
+        <v>0.5101255806469667</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3972600196605647</v>
+        <v>0.3881642846851291</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6321429454081043</v>
+        <v>0.6440099487079418</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>50</v>
@@ -1781,19 +1781,19 @@
         <v>37670</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28432</v>
+        <v>28317</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48844</v>
+        <v>48828</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3015198339992791</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.227580440439845</v>
+        <v>0.2266581015769459</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3909576187927276</v>
+        <v>0.3908325822629715</v>
       </c>
     </row>
     <row r="19">
